--- a/2023-09-06.xlsx
+++ b/2023-09-06.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 ~ Docente: OLMOS  Curso: 4B  Hora: 23:27 ~</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31 ~ Docente: RICCA  Curso: 7A  Hora: 23:28 ~</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 ~ Docente: OLMOS  Curso: 4B  Hora: 23:27 ~ ~ Docente: RICCA  Curso: 7A  Hora: 23:28 ~ ~ Docente: RICCA  Curso: 7A  Hora: 23:28 ~</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 ~ Docente: RICCA  Curso: 7A  Hora: 23:28 ~</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 ~ Docente: NICO  Curso: 4B  Hora: 20:47 ~</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 ~ Docente: RICCA  Curso: 7A  Hora: 23:27 ~</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7 ~ Docente: OLMOS  Curso: 4B  Hora: 23:27 ~</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
